--- a/front/抽奖结果.xlsx
+++ b/front/抽奖结果.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,42 +398,163 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>一等奖</v>
+        <v>特等奖</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>二等奖</v>
+        <v>一等奖</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>三等奖</v>
+        <v>二等奖</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>四等奖</v>
+        <v>三等奖</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>五等奖</v>
+        <v>四等奖</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>六等奖</v>
+        <v>五等奖</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>幸运奖</v>
+        <v>六等奖</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10" t="str">
+        <v>伊斯内尔</v>
+      </c>
+      <c r="C10" t="str">
+        <v>157xxxxxxxx</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11" t="str">
+        <v>拉奥</v>
+      </c>
+      <c r="C11" t="str">
+        <v>152xxxxxxxx</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>33</v>
+      </c>
+      <c r="B12" t="str">
+        <v>伊万</v>
+      </c>
+      <c r="C12" t="str">
+        <v>174xxxxxxxx</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" t="str">
+        <v>梅尔滕斯</v>
+      </c>
+      <c r="C13" t="str">
+        <v>189xxxxxxxx</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="str">
+        <v>大威</v>
+      </c>
+      <c r="C14" t="str">
+        <v>156xxxxxxxx</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15" t="str">
+        <v>本西奇</v>
+      </c>
+      <c r="C15" t="str">
+        <v>184xxxxxxxx</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="str">
+        <v>小白菜</v>
+      </c>
+      <c r="C16" t="str">
+        <v>134xxxxxxxx</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>56</v>
+      </c>
+      <c r="B17" t="str">
+        <v>迪米</v>
+      </c>
+      <c r="C17" t="str">
+        <v>151xxxxxxxx</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>37</v>
+      </c>
+      <c r="B18" t="str">
+        <v>考特</v>
+      </c>
+      <c r="C18" t="str">
+        <v>170xxxxxxxx</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="str">
+        <v>加西亚</v>
+      </c>
+      <c r="C19" t="str">
+        <v>187xxxxxxxx</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="B20" t="str">
+        <v>李娜</v>
+      </c>
+      <c r="C20" t="str">
+        <v>183xxxxxxxx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C20"/>
   </ignoredErrors>
 </worksheet>
 </file>